--- a/MSDM5058信息科学/作业/project2/一支股票策略.xlsx
+++ b/MSDM5058信息科学/作业/project2/一支股票策略.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\张铭韬\Desktop\学业\港科大\MSDM5058信息科学\作业\project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E389474C-4DAE-4C17-B718-4D837DAFAB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C729CBF-1FA2-4DD8-A7F6-DE2B94C222A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="22815" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,6 +401,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -408,33 +435,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
@@ -731,14 +731,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:F25"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="8" max="12" width="9" style="1"/>
+    <col min="8" max="9" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -767,7 +769,7 @@
       <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="21" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="18" t="s">
@@ -787,7 +789,7 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="19"/>
-      <c r="C3" s="31"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="19"/>
       <c r="E3" s="6" t="s">
         <v>11</v>
@@ -803,7 +805,7 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="19"/>
-      <c r="C4" s="31"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="19" t="s">
         <v>10</v>
       </c>
@@ -821,7 +823,7 @@
     </row>
     <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="19"/>
-      <c r="C5" s="31"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="19"/>
       <c r="E5" s="6" t="s">
         <v>11</v>
@@ -839,7 +841,7 @@
       <c r="B6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="21" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="2"/>
@@ -855,7 +857,7 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="19"/>
-      <c r="C7" s="31"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
       <c r="F7" s="25"/>
@@ -867,7 +869,7 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="19"/>
-      <c r="C8" s="31"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
       <c r="F8" s="25"/>
@@ -879,7 +881,7 @@
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="20"/>
-      <c r="C9" s="32"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="7"/>
       <c r="E9" s="9"/>
       <c r="F9" s="26"/>
@@ -898,7 +900,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="30" t="s">
         <v>12</v>
       </c>
       <c r="H10"/>
@@ -911,7 +913,7 @@
       <c r="B11" s="19"/>
       <c r="C11" s="28"/>
       <c r="D11" s="1"/>
-      <c r="F11" s="22"/>
+      <c r="F11" s="31"/>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -922,7 +924,7 @@
       <c r="B12" s="19"/>
       <c r="C12" s="28"/>
       <c r="D12" s="1"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="31"/>
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -934,7 +936,7 @@
       <c r="C13" s="29"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="23"/>
+      <c r="F13" s="32"/>
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
@@ -964,9 +966,6 @@
       <c r="C15" s="28"/>
       <c r="D15" s="1"/>
       <c r="F15" s="34"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
     </row>
@@ -975,9 +974,6 @@
       <c r="C16" s="28"/>
       <c r="D16" s="1"/>
       <c r="F16" s="34"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
     </row>
@@ -987,9 +983,6 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="35"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
     </row>
@@ -1005,9 +998,6 @@
       <c r="F18" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
     </row>
@@ -1016,9 +1006,6 @@
       <c r="C19" s="28"/>
       <c r="D19" s="1"/>
       <c r="F19" s="25"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
     </row>
@@ -1027,9 +1014,6 @@
       <c r="C20" s="28"/>
       <c r="D20" s="1"/>
       <c r="F20" s="25"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
     </row>
@@ -1039,9 +1023,6 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="26"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
     </row>
@@ -1049,53 +1030,41 @@
       <c r="B22" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="19"/>
-      <c r="C23" s="31"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="5"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="22"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
+      <c r="F23" s="31"/>
       <c r="K23"/>
       <c r="L23"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="19"/>
-      <c r="C24" s="31"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="22"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
+      <c r="F24" s="31"/>
       <c r="K24"/>
       <c r="L24"/>
     </row>
     <row r="25" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="19"/>
-      <c r="C25" s="32"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="7"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="23"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
+      <c r="F25" s="32"/>
       <c r="K25"/>
       <c r="L25"/>
     </row>
@@ -1115,9 +1084,6 @@
       <c r="F26" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
       <c r="K26"/>
       <c r="L26"/>
     </row>
@@ -1131,9 +1097,6 @@
       <c r="F27" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
       <c r="K27"/>
       <c r="L27"/>
     </row>
@@ -1149,9 +1112,6 @@
       <c r="F28" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
       <c r="K28"/>
       <c r="L28"/>
     </row>
@@ -1165,21 +1125,11 @@
       <c r="F29" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
       <c r="K29"/>
       <c r="L29"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="C22:C25"/>
     <mergeCell ref="B26:B29"/>
@@ -1196,6 +1146,13 @@
     <mergeCell ref="F22:F25"/>
     <mergeCell ref="F18:F21"/>
     <mergeCell ref="C18:C21"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MSDM5058信息科学/作业/project2/一支股票策略.xlsx
+++ b/MSDM5058信息科学/作业/project2/一支股票策略.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\张铭韬\Desktop\学业\港科大\MSDM5058信息科学\作业\project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C729CBF-1FA2-4DD8-A7F6-DE2B94C222A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC683C27-F8F8-484D-A7B2-049615374044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="22815" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,27 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
-  <si>
-    <t>今天状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>明天状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>今天macd</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>macd差值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>决策</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="29">
   <si>
     <t>U</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -73,23 +53,88 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>买</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>H/D</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>U/H</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Today's State</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tomorrow's State</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Today's MACD Value</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tomorrow's MACD Value - Today's</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>Hold</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>Action</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1 Action</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2 Action</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy both with half of gM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy S1 with gM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy S2 with gM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>First sell gN2, then buy S1 with g(M+Sold_value)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell both with half of gNi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>If Need to Balance pt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>First sell gN1, then buy S2 with g(M+Sold_value)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell S1 with gN1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell S2 with gN2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -322,6 +367,21 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -339,7 +399,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -398,16 +458,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
@@ -419,31 +506,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -729,407 +804,467 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L29"/>
+  <dimension ref="B1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="9" style="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.75" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9" style="1"/>
+    <col min="10" max="11" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.75" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H1"/>
       <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J1" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>0</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J2" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="19"/>
-      <c r="C3" s="22"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="19"/>
       <c r="E3" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J3" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="19"/>
-      <c r="C4" s="22"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="19" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-    </row>
-    <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="19"/>
-      <c r="C5" s="22"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="19"/>
       <c r="E5" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J5" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="24" t="s">
-        <v>14</v>
+      <c r="F6" s="33" t="s">
+        <v>15</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J6" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="19"/>
-      <c r="C7" s="22"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="25"/>
+      <c r="F7" s="34"/>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J7" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="19"/>
-      <c r="C8" s="22"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="25"/>
+      <c r="F8" s="34"/>
       <c r="H8"/>
       <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-    </row>
-    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="20"/>
-      <c r="C9" s="23"/>
+      <c r="J8" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="23"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="7"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="26"/>
+      <c r="F9" s="35"/>
       <c r="H9"/>
       <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J9" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>0</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="30" t="s">
-        <v>12</v>
+      <c r="F10" s="27" t="s">
+        <v>13</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J10" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="19"/>
-      <c r="C11" s="28"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="1"/>
-      <c r="F11" s="31"/>
+      <c r="F11" s="28"/>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="19"/>
-      <c r="C12" s="28"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="1"/>
-      <c r="F12" s="31"/>
+      <c r="F12" s="28"/>
       <c r="H12"/>
       <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-    </row>
-    <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="20"/>
-      <c r="C13" s="29"/>
+    </row>
+    <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="23"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="32"/>
+      <c r="F13" s="29"/>
       <c r="H13"/>
       <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="33" t="s">
-        <v>13</v>
+      <c r="F14" s="30" t="s">
+        <v>14</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="19"/>
-      <c r="C15" s="28"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="1"/>
-      <c r="F15" s="34"/>
-      <c r="K15"/>
-      <c r="L15"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="F15" s="31"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="19"/>
-      <c r="C16" s="28"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="1"/>
-      <c r="F16" s="34"/>
-      <c r="K16"/>
-      <c r="L16"/>
-    </row>
-    <row r="17" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="20"/>
-      <c r="C17" s="29"/>
+      <c r="F16" s="31"/>
+    </row>
+    <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="23"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="35"/>
-      <c r="K17"/>
-      <c r="L17"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="F17" s="32"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>2</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18"/>
-      <c r="L18"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="F18" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="19"/>
-      <c r="C19" s="28"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="1"/>
-      <c r="F19" s="25"/>
-      <c r="K19"/>
-      <c r="L19"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="F19" s="34"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="19"/>
-      <c r="C20" s="28"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="1"/>
-      <c r="F20" s="25"/>
-      <c r="K20"/>
-      <c r="L20"/>
-    </row>
-    <row r="21" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="20"/>
-      <c r="C21" s="29"/>
+      <c r="F20" s="34"/>
+    </row>
+    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="23"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="26"/>
-      <c r="K21"/>
-      <c r="L21"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="F21" s="35"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>8</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22"/>
-      <c r="L22"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="F22" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="19"/>
-      <c r="C23" s="22"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="5"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="31"/>
-      <c r="K23"/>
-      <c r="L23"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="19"/>
-      <c r="C24" s="22"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="31"/>
-      <c r="K24"/>
-      <c r="L24"/>
-    </row>
-    <row r="25" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="28"/>
+    </row>
+    <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="19"/>
-      <c r="C25" s="23"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="7"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="32"/>
-      <c r="K25"/>
-      <c r="L25"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="F25" s="29"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>2</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26"/>
-      <c r="L26"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="19"/>
-      <c r="C27" s="28"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="19"/>
       <c r="E27" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27"/>
-      <c r="L27"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="19"/>
-      <c r="C28" s="28"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="19" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28"/>
-      <c r="L28"/>
-    </row>
-    <row r="29" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="20"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="20"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="23"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K29"/>
-      <c r="L29"/>
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="C22:C25"/>
     <mergeCell ref="B26:B29"/>
@@ -1146,13 +1281,6 @@
     <mergeCell ref="F22:F25"/>
     <mergeCell ref="F18:F21"/>
     <mergeCell ref="C18:C21"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MSDM5058信息科学/作业/project2/一支股票策略.xlsx
+++ b/MSDM5058信息科学/作业/project2/一支股票策略.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\张铭韬\Desktop\学业\港科大\MSDM5058信息科学\作业\project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC683C27-F8F8-484D-A7B2-049615374044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994B4C26-C119-4018-A310-427936673383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,7 +399,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -452,12 +452,27 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -467,7 +482,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -495,30 +516,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -806,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -841,27 +838,27 @@
       </c>
       <c r="H1"/>
       <c r="I1"/>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="M1" s="21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="22" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -872,23 +869,23 @@
       </c>
       <c r="H2"/>
       <c r="I2"/>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="38" t="b">
+      <c r="M2" s="20" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="19"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
@@ -897,23 +894,23 @@
       </c>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="39" t="b">
+      <c r="M3" s="21" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="19"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="19" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -924,23 +921,23 @@
       </c>
       <c r="H4"/>
       <c r="I4"/>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="39" t="b">
+      <c r="M4" s="21" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="19"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="6" t="s">
         <v>6</v>
       </c>
@@ -949,269 +946,269 @@
       </c>
       <c r="H5"/>
       <c r="I5"/>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="L5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="38" t="b">
+      <c r="M5" s="20" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="L6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="39" t="b">
+      <c r="M6" s="21" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="19"/>
-      <c r="C7" s="21"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="34"/>
+      <c r="F7" s="29"/>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="39" t="s">
+      <c r="L7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="39" t="b">
+      <c r="M7" s="21" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="19"/>
-      <c r="C8" s="21"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="34"/>
+      <c r="F8" s="29"/>
       <c r="H8"/>
       <c r="I8"/>
-      <c r="J8" s="38" t="s">
+      <c r="J8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="36" t="s">
+      <c r="K8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="39" t="s">
+      <c r="L8" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="38" t="b">
+      <c r="M8" s="20" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
-      <c r="C9" s="22"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="7"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="35"/>
+      <c r="F9" s="30"/>
       <c r="H9"/>
       <c r="I9"/>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="39" t="s">
+      <c r="L9" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="38" t="b">
+      <c r="M9" s="20" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="31" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="34" t="s">
         <v>13</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
-      <c r="J10" s="38" t="s">
+      <c r="J10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="38" t="s">
+      <c r="K10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="39" t="s">
+      <c r="L10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="38" t="b">
+      <c r="M10" s="20" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="19"/>
-      <c r="C11" s="25"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="1"/>
-      <c r="F11" s="28"/>
+      <c r="F11" s="35"/>
       <c r="H11"/>
       <c r="I11"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="19"/>
-      <c r="C12" s="25"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="1"/>
-      <c r="F12" s="28"/>
+      <c r="F12" s="35"/>
       <c r="H12"/>
       <c r="I12"/>
     </row>
     <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
-      <c r="C13" s="26"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="29"/>
+      <c r="F13" s="36"/>
       <c r="H13"/>
       <c r="I13"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="31" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="37" t="s">
         <v>14</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="19"/>
-      <c r="C15" s="25"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="1"/>
-      <c r="F15" s="31"/>
+      <c r="F15" s="38"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="19"/>
-      <c r="C16" s="25"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="1"/>
-      <c r="F16" s="31"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="23"/>
-      <c r="C17" s="26"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="32"/>
+      <c r="F17" s="39"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="31" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="19"/>
-      <c r="C19" s="25"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="1"/>
-      <c r="F19" s="34"/>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="19"/>
-      <c r="C20" s="25"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="1"/>
-      <c r="F20" s="34"/>
+      <c r="F20" s="29"/>
     </row>
     <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="35"/>
+      <c r="F21" s="30"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="25" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="19"/>
-      <c r="C23" s="21"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="5"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="28"/>
+      <c r="F23" s="35"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="19"/>
-      <c r="C24" s="21"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="28"/>
+      <c r="F24" s="35"/>
     </row>
     <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="19"/>
-      <c r="C25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="7"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="29"/>
+      <c r="F25" s="36"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="22" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -1222,9 +1219,9 @@
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="19"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="19"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="6" t="s">
         <v>6</v>
       </c>
@@ -1233,9 +1230,9 @@
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="19"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="19" t="s">
+      <c r="B28" s="23"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E28" s="6" t="s">
@@ -1246,9 +1243,9 @@
       </c>
     </row>
     <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="23"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="23"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="9" t="s">
         <v>6</v>
       </c>
@@ -1258,13 +1255,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="C22:C25"/>
     <mergeCell ref="B26:B29"/>
@@ -1281,6 +1271,13 @@
     <mergeCell ref="F22:F25"/>
     <mergeCell ref="F18:F21"/>
     <mergeCell ref="C18:C21"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
